--- a/biology/Botanique/Agave_vivipara/Agave_vivipara.xlsx
+++ b/biology/Botanique/Agave_vivipara/Agave_vivipara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agave vivipara est une espèce de plantes monocotylédones de la famille des Agavaceae, originaire du Mexique.
-Cette espèce a parfois été confondue avec Agave angustifolia Haw. considérée désormais comme une espèce distincte[1].
+Cette espèce a parfois été confondue avec Agave angustifolia Haw. considérée désormais comme une espèce distincte.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La tige forme un tronc court, qui porte des feuilles lancéolées de 1,2 m de long sur 10 cm de large lance-courtes 120  cm de long et 10 cm de large, de couleur vert pâle à gris, à la bordure blanche, généralement concave à la face supérieure (et convexe à la face inférieure).
 Chaque feuille porte une épine terminale marron foncé  d'environ 3 cm de long brun foncé.
@@ -545,10 +559,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition originelle de cette espèce se situe au Mexique, mais elle s'est naturalisée dans diverses régions du monde, comme par exemple en Afrique du Sud[2],[3]
-et au Portugal[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition originelle de cette espèce se situe au Mexique, mais elle s'est naturalisée dans diverses régions du monde, comme par exemple en Afrique du Sud,
+et au Portugal
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (5 avril 2016)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (5 avril 2016) :
 variété Agave vivipara var. deweyana (Trel.) P.I.Forst.
 variété Agave vivipara var. letonae (F.W.Taylor ex Trel.) P.I.Forst.
 variété Agave vivipara var. nivea (Trel.) P.I.Forst.
@@ -612,9 +630,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (5 avril 2016)[6] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (5 avril 2016) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Agave vivipara cv marginata (hort. ex Gentry) P.I. Forst.
 sous-espèce Agave vivipara cv variegata (Trel.) P.I. Forst.
 variété Agave vivipara var. bromeliifolia (Salm-Dyck) A. Terracc.
